--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Apob-Lsr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Apob-Lsr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,7 +537,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.004031000000000001</v>
+        <v>0.004031</v>
       </c>
       <c r="H2">
         <v>0.012093</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.8954003333333334</v>
+        <v>0.5652576666666667</v>
       </c>
       <c r="N2">
-        <v>2.686201</v>
+        <v>1.695773</v>
       </c>
       <c r="O2">
-        <v>0.0978330080550312</v>
+        <v>0.1543677258353495</v>
       </c>
       <c r="P2">
-        <v>0.0978330080550312</v>
+        <v>0.1543677258353495</v>
       </c>
       <c r="Q2">
-        <v>0.003609358743666667</v>
+        <v>0.002278553654333333</v>
       </c>
       <c r="R2">
-        <v>0.032484228693</v>
+        <v>0.020506982889</v>
       </c>
       <c r="S2">
-        <v>0.0978330080550312</v>
+        <v>0.1543677258353495</v>
       </c>
       <c r="T2">
-        <v>0.0978330080550312</v>
+        <v>0.1543677258353495</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,7 +599,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.004031000000000001</v>
+        <v>0.004031</v>
       </c>
       <c r="H3">
         <v>0.012093</v>
@@ -623,22 +623,22 @@
         <v>1.928196</v>
       </c>
       <c r="O3">
-        <v>0.0702260235923071</v>
+        <v>0.175525398437655</v>
       </c>
       <c r="P3">
-        <v>0.0702260235923071</v>
+        <v>0.1755253984376551</v>
       </c>
       <c r="Q3">
-        <v>0.002590852692000001</v>
+        <v>0.002590852692</v>
       </c>
       <c r="R3">
         <v>0.023317674228</v>
       </c>
       <c r="S3">
-        <v>0.0702260235923071</v>
+        <v>0.175525398437655</v>
       </c>
       <c r="T3">
-        <v>0.0702260235923071</v>
+        <v>0.1755253984376551</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,7 +661,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.004031000000000001</v>
+        <v>0.004031</v>
       </c>
       <c r="H4">
         <v>0.012093</v>
@@ -673,96 +673,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.05328633333333333</v>
+        <v>2.453771</v>
       </c>
       <c r="N4">
-        <v>0.159859</v>
+        <v>7.361313</v>
       </c>
       <c r="O4">
-        <v>0.005822158071815636</v>
+        <v>0.6701068757269955</v>
       </c>
       <c r="P4">
-        <v>0.005822158071815636</v>
+        <v>0.6701068757269955</v>
       </c>
       <c r="Q4">
-        <v>0.0002147972096666667</v>
+        <v>0.009891150901</v>
       </c>
       <c r="R4">
-        <v>0.001933174887</v>
+        <v>0.089020358109</v>
       </c>
       <c r="S4">
-        <v>0.005822158071815636</v>
+        <v>0.6701068757269955</v>
       </c>
       <c r="T4">
-        <v>0.005822158071815636</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.004031000000000001</v>
-      </c>
-      <c r="H5">
-        <v>0.012093</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>7.560915</v>
-      </c>
-      <c r="N5">
-        <v>22.682745</v>
-      </c>
-      <c r="O5">
-        <v>0.826118810280846</v>
-      </c>
-      <c r="P5">
-        <v>0.826118810280846</v>
-      </c>
-      <c r="Q5">
-        <v>0.03047804836500001</v>
-      </c>
-      <c r="R5">
-        <v>0.274302435285</v>
-      </c>
-      <c r="S5">
-        <v>0.826118810280846</v>
-      </c>
-      <c r="T5">
-        <v>0.826118810280846</v>
+        <v>0.6701068757269955</v>
       </c>
     </row>
   </sheetData>
